--- a/1_WordFeatures/PredicedMem.xlsx
+++ b/1_WordFeatures/PredicedMem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Zane/NIH_HPC/NIH_PAL_Mem/Scripts/1_WordFeatures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Zane/NIH_HPC/NIH_PAL_Mem/NIH_PAL_MEM/1_WordFeatures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477B7CF8-AB4A-6246-960D-11C5DBDB8E1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF39C9C-3BA4-9749-A31E-D826F8F32ED5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="2480" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{1349ACCA-172F-B247-951C-8059F8F093F1}"/>
+    <workbookView xWindow="520" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{1349ACCA-172F-B247-951C-8059F8F093F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1116,11 +1116,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1437,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CC55FC-5CB2-0546-854B-884D1875C8C7}">
   <dimension ref="A1:J301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1446,9 +1446,12 @@
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -11093,7 +11096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FCC359-9943-F748-858D-13D121413407}">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -11484,16 +11487,16 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
@@ -11513,22 +11516,22 @@
       <c r="C32" t="s">
         <v>331</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>0.17299999999999999</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>2.7330000000000001</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>0.14699999999999999</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <v>2.339</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <v>0.02</v>
       </c>
     </row>
@@ -11536,22 +11539,22 @@
       <c r="C33" t="s">
         <v>332</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>1.575</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>0.11600000000000001</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>0.1</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <v>1.6319999999999999</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <v>0.104</v>
       </c>
     </row>
@@ -11559,22 +11562,22 @@
       <c r="C34" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>0.93</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>0.108</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <v>1.84</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
